--- a/RailsAppPlan.xlsx
+++ b/RailsAppPlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-ikeda\Tsurizao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-ikeda\Desktop\fishApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10694,7 +10694,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>要件</a:t>
+            <a:t>用件</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11263,9 +11263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -11364,7 +11362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/RailsAppPlan.xlsx
+++ b/RailsAppPlan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-ikeda\Desktop\fishApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n-ikeda\Tsurizao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>釣った魚の記録をしたり、どこで何が釣れるか見たり、いいねやコメントをもらい交流することができます</t>
     <rPh sb="0" eb="1">
       <t>ツ</t>
@@ -246,16 +242,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>アン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者にフィードバックを送る</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,6 +463,35 @@
     <t>fishimg</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>管理者にフィードバックを送る　→　面倒なのでやめた。専用のTwitterアカウントでDMで運用する</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング　→　サイズは「●～●●」表記なので無理そう。</t>
+    <rPh sb="18" eb="20">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -10969,6 +10984,66 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="24050625"/>
+          <a:ext cx="3743325" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11250,7 +11325,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -11263,7 +11338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R105" sqref="R105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -11274,27 +11351,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -11339,7 +11416,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I94" t="s">
         <v>10</v>
@@ -11347,7 +11424,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -11375,196 +11452,196 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
